--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>Reporte Evaluación de Riesgo</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +78,66 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>TipoA</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva SA</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Unidad Humanos</t>
+  </si>
+  <si>
+    <t>Rh Macro</t>
+  </si>
+  <si>
+    <t>Rh Proceso</t>
+  </si>
+  <si>
+    <t>AmenazaA</t>
+  </si>
+  <si>
+    <t>Es una amena&lt;a de nivel A</t>
+  </si>
+  <si>
+    <t>Categoria A</t>
+  </si>
+  <si>
+    <t>Vulnerabilidad A</t>
+  </si>
+  <si>
+    <t>Riesgo A</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Rara</t>
+  </si>
+  <si>
+    <t>Insignificante</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:23:34.000000</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:57:10.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:57:11.000000</t>
   </si>
 </sst>
 </file>
@@ -82,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -92,13 +155,37 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B7ADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -410,77 +503,298 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8">
+        <v>4.75</v>
+      </c>
+      <c r="R8">
+        <v>5700</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9">
+        <v>4.75</v>
+      </c>
+      <c r="R9">
+        <v>5700</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:R2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -86,16 +86,16 @@
     <t>Financiera Efectiva SA</t>
   </si>
   <si>
-    <t>Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Unidad Humanos</t>
-  </si>
-  <si>
-    <t>Rh Macro</t>
-  </si>
-  <si>
-    <t>Rh Proceso</t>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Infraestructura_y_Servicios_TI</t>
+  </si>
+  <si>
+    <t>Gestión_de_Centro_de_Datos</t>
+  </si>
+  <si>
+    <t>Gestión_de_Servicio_de_Terceros_Centro_de_Datos</t>
   </si>
   <si>
     <t>AmenazaA</t>
@@ -110,34 +110,25 @@
     <t>Vulnerabilidad A</t>
   </si>
   <si>
-    <t>Riesgo A</t>
+    <t>Inadecuada2 gestión y desempeño de Bantotal por Incumplimiento en la ejecución de tareas y actividades de diseño y desarrollo de software, puede afect</t>
   </si>
   <si>
     <t>Improbable</t>
   </si>
   <si>
-    <t>Menor</t>
-  </si>
-  <si>
-    <t>Medio</t>
+    <t>Moderado</t>
   </si>
   <si>
     <t>Rara</t>
   </si>
   <si>
-    <t>Insignificante</t>
-  </si>
-  <si>
-    <t>2023-03-26 17:23:34.000000</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>2023-03-26 17:57:10.000000</t>
-  </si>
-  <si>
-    <t>2023-03-26 17:57:11.000000</t>
+    <t>2023-03-27 16:53:45.000000</t>
+  </si>
+  <si>
+    <t>Inadecuada gestión y desempeño de Bantotal por Incumplimiento en la ejecución de tareas y actividades de diseño y desarrollo de software, puede afecta</t>
+  </si>
+  <si>
+    <t>2023-03-27 18:52:33.000000</t>
   </si>
 </sst>
 </file>
@@ -503,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -615,7 +606,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -636,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -660,24 +651,24 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
         <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -698,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -713,82 +704,28 @@
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8"/>
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="R8">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9">
-        <v>4.75</v>
-      </c>
-      <c r="R9">
-        <v>5700</v>
-      </c>
-      <c r="S9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
